--- a/src/main/presentation/New MS Office Excel OpenXML.xlsx
+++ b/src/main/presentation/New MS Office Excel OpenXML.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="System Design" sheetId="1" r:id="rId1"/>
@@ -517,15 +517,6 @@
   </cellStyleXfs>
   <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -534,29 +525,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -567,9 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -579,118 +546,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -700,48 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -749,8 +563,194 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2136,7 +2136,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1920240" y="2042160"/>
+          <a:off x="1920240" y="2065020"/>
           <a:ext cx="487680" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3018,28 +3018,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>526400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>126406</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>36753</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>43856</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Down Arrow 26"/>
+        <xdr:cNvPr id="28" name="Up Arrow 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="2083507">
-          <a:off x="7590140" y="1406566"/>
-          <a:ext cx="119953" cy="595630"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
+        <a:xfrm>
+          <a:off x="9083040" y="1478280"/>
+          <a:ext cx="129540" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3072,28 +3072,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403859</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Up Arrow 27"/>
+        <xdr:cNvPr id="30" name="Down Arrow 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9083040" y="1478280"/>
-          <a:ext cx="129540" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
+          <a:off x="6492240" y="4564380"/>
+          <a:ext cx="121919" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3127,25 +3127,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>541829</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>78536</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>69682</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>52882</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Up Arrow 28"/>
+        <xdr:cNvPr id="31" name="Up Arrow 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19391473">
-          <a:off x="7605569" y="1358696"/>
-          <a:ext cx="137453" cy="652526"/>
+        <a:xfrm>
+          <a:off x="7482840" y="3611880"/>
+          <a:ext cx="137160" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -3180,28 +3180,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>403859</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Down Arrow 29"/>
+        <xdr:cNvPr id="32" name="Up-Down Arrow 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6492240" y="4564380"/>
-          <a:ext cx="121919" cy="350520"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
+          <a:off x="7513320" y="1295400"/>
+          <a:ext cx="312420" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3824,529 +3824,529 @@
     <row r="1" spans="2:18" ht="14.4" customHeight="1"/>
     <row r="2" spans="2:18" ht="14.4" customHeight="1"/>
     <row r="3" spans="2:18" ht="14.4" customHeight="1">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="51" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="P3" s="59" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="74"/>
+      <c r="P3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="2:18" ht="14.4" customHeight="1">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
     </row>
     <row r="5" spans="2:18" ht="14.4" customHeight="1">
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
       <c r="E5" s="58"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="55"/>
-      <c r="P5" s="60"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
+      <c r="P5" s="57"/>
       <c r="Q5" s="58"/>
-      <c r="R5" s="61"/>
+      <c r="R5" s="59"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="G6" s="62" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="G6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="68" t="s">
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="28"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="22"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="22"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="33" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="22"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="22"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="12"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="22"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="22"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="12"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="12"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="22"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="22"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="12"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="2:18" ht="14.4" customHeight="1">
-      <c r="B12" s="7"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="12" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="22"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="22"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="12"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="12"/>
     </row>
     <row r="13" spans="2:18" ht="14.4" customHeight="1">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="22"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="22"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="12"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="12"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="22"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="22"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="12"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="12"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="22"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="22"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="12"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="12"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="22"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="22"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="12"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="21"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="22"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="42" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="22"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="22"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="12"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="21"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="22"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="22"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="12"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="12"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="22"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="22"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="12"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="22"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="22"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="22"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="12"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="22"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="22"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="12"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="22"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="22"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="12"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="12"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="22"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="22"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="12"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="12"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="21"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="22"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="22"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="22"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="12"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="21"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="22"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="42" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="22"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="22"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="12"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="12"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="21"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="22"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="22"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="22"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="12"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="12"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="21"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="22"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="22"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="22"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="12"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="21"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="22"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="22"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="22"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="12"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="12"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="21"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="22"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="22"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="22"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="12"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="12"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="25"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J6:N7"/>
-    <mergeCell ref="K9:M13"/>
-    <mergeCell ref="K17:M21"/>
-    <mergeCell ref="K25:M29"/>
-    <mergeCell ref="P3:R5"/>
     <mergeCell ref="B21:E22"/>
     <mergeCell ref="G6:I7"/>
     <mergeCell ref="G3:N5"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="B3:E5"/>
     <mergeCell ref="B6:E7"/>
+    <mergeCell ref="J6:N7"/>
+    <mergeCell ref="K9:M13"/>
+    <mergeCell ref="K17:M21"/>
+    <mergeCell ref="K25:M29"/>
+    <mergeCell ref="P3:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4358,14 +4358,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="7.44140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" customWidth="1"/>
     <col min="14" max="14" width="4.6640625" customWidth="1"/>
     <col min="15" max="15" width="17.77734375" customWidth="1"/>
@@ -4373,291 +4374,291 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:20">
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="J3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="15" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="R3" s="93" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
+      <c r="R3" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="4:20">
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
     <row r="5" spans="4:20">
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="22"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="12"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
     </row>
     <row r="6" spans="4:20">
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="69" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="22"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="12"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
     </row>
     <row r="7" spans="4:20">
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
     </row>
     <row r="8" spans="4:20">
-      <c r="R8" s="75"/>
-      <c r="S8" s="20"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" spans="4:20" ht="3.6" customHeight="1">
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="20"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" spans="4:20" ht="9.6" customHeight="1">
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="97" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="71"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="20"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="23"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="4:20" ht="8.4" customHeight="1">
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="20"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" spans="4:20" ht="15" customHeight="1" thickBot="1">
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="75"/>
-      <c r="S12" s="20"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="4:20">
-      <c r="D13" s="70"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="20"/>
+      <c r="D13" s="90"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="4:20">
-      <c r="D14" s="70"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="20" t="s">
+      <c r="D14" s="90"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20" t="s">
+      <c r="L14" s="28"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="76"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="20"/>
+      <c r="O14" s="28"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="10"/>
     </row>
     <row r="15" spans="4:20" ht="15" thickBot="1">
-      <c r="D15" s="70"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="79"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="20"/>
+      <c r="D15" s="90"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="10"/>
     </row>
     <row r="16" spans="4:20">
-      <c r="D16" s="70"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="20"/>
+      <c r="D16" s="90"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="10"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="70"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="20"/>
+      <c r="D17" s="90"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="10"/>
     </row>
     <row r="18" spans="4:19" ht="15" thickBot="1">
-      <c r="D18" s="70"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="20"/>
+      <c r="D18" s="90"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="10"/>
     </row>
     <row r="19" spans="4:19">
-      <c r="D19" s="70"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
-      <c r="O19" s="80" t="s">
+      <c r="D19" s="90"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="O19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="20"/>
+      <c r="P19" s="10"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="10"/>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="70"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="20" t="s">
+      <c r="D20" s="90"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="20" t="s">
+      <c r="H20" s="28"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="76"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="13"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="20"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="28"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="9"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="21" spans="4:19" ht="15" thickBot="1">
-      <c r="D21" s="70"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="20"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="20"/>
+      <c r="D21" s="90"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="10"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="4:19">
-      <c r="D22" s="70"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="20"/>
+      <c r="D22" s="90"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="4:19" ht="15" thickBot="1">
-      <c r="D23" s="70"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="20"/>
+      <c r="D23" s="90"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="10"/>
     </row>
     <row r="24" spans="4:19" ht="14.4" customHeight="1">
-      <c r="D24" s="70"/>
-      <c r="F24" s="87" t="s">
+      <c r="D24" s="90"/>
+      <c r="F24" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="88"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="20"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="81"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="10"/>
     </row>
     <row r="25" spans="4:19" ht="15" customHeight="1">
-      <c r="D25" s="70"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="90"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="20"/>
+      <c r="D25" s="90"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="84"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="10"/>
     </row>
     <row r="26" spans="4:19" ht="13.8" customHeight="1" thickBot="1">
-      <c r="D26" s="70"/>
-      <c r="F26" s="91"/>
+      <c r="D26" s="90"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
       <c r="I26" s="86"/>
@@ -4666,25 +4667,25 @@
       <c r="L26" s="86"/>
       <c r="M26" s="86"/>
       <c r="N26" s="86"/>
-      <c r="O26" s="92"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="20"/>
+      <c r="O26" s="87"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="10"/>
     </row>
     <row r="27" spans="4:19">
-      <c r="D27" s="70"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="20"/>
+      <c r="D27" s="90"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D12:D27"/>
+    <mergeCell ref="O19:O21"/>
     <mergeCell ref="F24:O26"/>
     <mergeCell ref="R3:T7"/>
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="F3:H4"/>
     <mergeCell ref="J3:L4"/>
     <mergeCell ref="M3:O4"/>
-    <mergeCell ref="D12:D27"/>
-    <mergeCell ref="O19:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4696,7 +4697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -4712,158 +4713,158 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:17">
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="3:17" ht="15" thickBot="1">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="G4" s="83" t="s">
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="G4" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="K4" s="84" t="s">
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="K4" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="O4" s="84" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="O4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
     </row>
     <row r="5" spans="3:17">
-      <c r="D5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="P5" s="94"/>
+      <c r="D5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="3:17">
-      <c r="D6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="P6" s="94"/>
+      <c r="D6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="3:17">
-      <c r="D7" s="94"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="P7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="D8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="P8" s="94"/>
+      <c r="D8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="3:17">
-      <c r="D9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="1" t="s">
+      <c r="D9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="94"/>
-      <c r="P9" s="94"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="32"/>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="3:17">
-      <c r="D10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="P10" s="94"/>
+      <c r="D10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="3:17">
-      <c r="D11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="P11" s="94"/>
+      <c r="D11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="3:17">
-      <c r="D12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="2" t="s">
+      <c r="D12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="94"/>
-      <c r="P12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="32"/>
+      <c r="P12" s="32"/>
     </row>
     <row r="13" spans="3:17">
-      <c r="D13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="P13" s="94"/>
+      <c r="D13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="3:17">
-      <c r="D14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="P14" s="94"/>
+      <c r="D14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="3:17">
-      <c r="D15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="P15" s="94"/>
+      <c r="D15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="P15" s="32"/>
     </row>
     <row r="16" spans="3:17">
-      <c r="D16" s="94"/>
-      <c r="F16" s="1" t="s">
+      <c r="D16" s="32"/>
+      <c r="F16" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="P16" s="94"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="4:16">
-      <c r="D17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="P17" s="94"/>
+      <c r="D17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="P17" s="32"/>
     </row>
     <row r="18" spans="4:16">
-      <c r="H18" s="94"/>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="32"/>
+      <c r="I18" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="4:16">
-      <c r="H19" s="94"/>
-      <c r="P19" s="94"/>
+      <c r="H19" s="32"/>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="4:16">
-      <c r="H20" s="94"/>
-      <c r="P20" s="94"/>
+      <c r="H20" s="32"/>
+      <c r="P20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/main/presentation/New MS Office Excel OpenXML.xlsx
+++ b/src/main/presentation/New MS Office Excel OpenXML.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="System Design" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>External Data Source</t>
-  </si>
-  <si>
-    <t>国家金税系统</t>
-  </si>
-  <si>
-    <t>第三方税务云接口</t>
   </si>
   <si>
     <t>AO Payment Platform</t>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>Comparing and Analysing</t>
+  </si>
+  <si>
+    <t>China Tax Verification System</t>
+  </si>
+  <si>
+    <t>3rd Party Cloudy Inferface</t>
   </si>
 </sst>
 </file>
@@ -563,6 +563,72 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,109 +689,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -740,16 +707,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3801,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3824,101 +3824,101 @@
     <row r="1" spans="2:18" ht="14.4" customHeight="1"/>
     <row r="2" spans="2:18" ht="14.4" customHeight="1"/>
     <row r="3" spans="2:18" ht="14.4" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="72" t="s">
-        <v>8</v>
+      <c r="G3" s="47" t="s">
+        <v>6</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
-      <c r="P3" s="54" t="s">
-        <v>15</v>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="P3" s="76" t="s">
+        <v>13</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="56"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="55"/>
     </row>
     <row r="4" spans="2:18" ht="14.4" customHeight="1">
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="74"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="56"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
     </row>
     <row r="5" spans="2:18" ht="14.4" customHeight="1">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="59"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="78"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="66" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="G6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="12"/>
@@ -3949,11 +3949,11 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="36" t="s">
-        <v>12</v>
+      <c r="K9" s="58" t="s">
+        <v>10</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60"/>
       <c r="N9" s="12"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="10"/>
@@ -3970,9 +3970,9 @@
       <c r="H10" s="10"/>
       <c r="I10" s="12"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="12"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="10"/>
@@ -3987,9 +3987,9 @@
       <c r="H11" s="10"/>
       <c r="I11" s="12"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="12"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="10"/>
@@ -4001,14 +4001,14 @@
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="77" t="s">
-        <v>10</v>
+      <c r="H12" s="52" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="12"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="10"/>
@@ -4022,12 +4022,12 @@
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="78"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="8"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="66"/>
       <c r="N13" s="12"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="10"/>
@@ -4095,11 +4095,11 @@
       <c r="H17" s="10"/>
       <c r="I17" s="12"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="45" t="s">
-        <v>13</v>
+      <c r="K17" s="67" t="s">
+        <v>11</v>
       </c>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="69"/>
       <c r="N17" s="12"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="10"/>
@@ -4114,9 +4114,9 @@
       <c r="H18" s="10"/>
       <c r="I18" s="12"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="12"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="10"/>
@@ -4131,9 +4131,9 @@
       <c r="H19" s="10"/>
       <c r="I19" s="12"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="12"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="10"/>
@@ -4148,38 +4148,38 @@
       <c r="H20" s="10"/>
       <c r="I20" s="12"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="12"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="12"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="G21" s="11"/>
       <c r="H21" s="10"/>
       <c r="I21" s="12"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
       <c r="N21" s="12"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="12"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
       <c r="G22" s="11"/>
       <c r="H22" s="10"/>
       <c r="I22" s="12"/>
@@ -4229,7 +4229,7 @@
     <row r="25" spans="2:18">
       <c r="B25" s="11"/>
       <c r="C25" s="10" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="12"/>
@@ -4237,11 +4237,11 @@
       <c r="H25" s="10"/>
       <c r="I25" s="12"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="45" t="s">
-        <v>14</v>
+      <c r="K25" s="67" t="s">
+        <v>12</v>
       </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="69"/>
       <c r="N25" s="12"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="10"/>
@@ -4256,9 +4256,9 @@
       <c r="H26" s="10"/>
       <c r="I26" s="12"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="50"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="72"/>
       <c r="N26" s="12"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="10"/>
@@ -4273,9 +4273,9 @@
       <c r="H27" s="10"/>
       <c r="I27" s="12"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="72"/>
       <c r="N27" s="12"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="10"/>
@@ -4284,7 +4284,7 @@
     <row r="28" spans="2:18">
       <c r="B28" s="11"/>
       <c r="C28" s="10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="12"/>
@@ -4292,9 +4292,9 @@
       <c r="H28" s="10"/>
       <c r="I28" s="12"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="50"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="72"/>
       <c r="N28" s="12"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="10"/>
@@ -4309,9 +4309,9 @@
       <c r="H29" s="10"/>
       <c r="I29" s="12"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="75"/>
       <c r="N29" s="12"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="10"/>
@@ -4336,6 +4336,8 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K25:M29"/>
+    <mergeCell ref="P3:R5"/>
     <mergeCell ref="B21:E22"/>
     <mergeCell ref="G6:I7"/>
     <mergeCell ref="G3:N5"/>
@@ -4345,8 +4347,6 @@
     <mergeCell ref="J6:N7"/>
     <mergeCell ref="K9:M13"/>
     <mergeCell ref="K17:M21"/>
-    <mergeCell ref="K25:M29"/>
-    <mergeCell ref="P3:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4358,7 +4358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
@@ -4374,40 +4374,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:20">
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-      <c r="J3" s="60" t="s">
-        <v>16</v>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="J3" s="35" t="s">
+        <v>14</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="61" t="s">
-        <v>17</v>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="36" t="s">
+        <v>15</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="62"/>
-      <c r="R3" s="88" t="s">
-        <v>25</v>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="R3" s="92" t="s">
+        <v>23</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
     </row>
     <row r="4" spans="4:20">
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
     </row>
     <row r="5" spans="4:20">
       <c r="F5" s="11"/>
@@ -4419,9 +4419,9 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="12"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
     </row>
     <row r="6" spans="4:20">
       <c r="F6" s="11"/>
@@ -4429,15 +4429,15 @@
       <c r="H6" s="12"/>
       <c r="J6" s="11"/>
       <c r="K6" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="12"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
     </row>
     <row r="7" spans="4:20">
       <c r="F7" s="13"/>
@@ -4449,9 +4449,9 @@
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
     </row>
     <row r="8" spans="4:20">
       <c r="R8" s="27"/>
@@ -4480,10 +4480,10 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="89" t="s">
-        <v>26</v>
+      <c r="K10" s="93" t="s">
+        <v>24</v>
       </c>
-      <c r="L10" s="89"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="33"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
@@ -4498,8 +4498,8 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="33"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
@@ -4508,14 +4508,14 @@
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="4:20" ht="15" customHeight="1" thickBot="1">
-      <c r="D12" s="90" t="s">
-        <v>19</v>
+      <c r="D12" s="79" t="s">
+        <v>17</v>
       </c>
       <c r="R12" s="27"/>
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="4:20">
-      <c r="D13" s="90"/>
+      <c r="D13" s="79"/>
       <c r="J13" s="24"/>
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
@@ -4526,22 +4526,22 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="4:20">
-      <c r="D14" s="90"/>
+      <c r="D14" s="79"/>
       <c r="J14" s="27"/>
       <c r="K14" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O14" s="28"/>
       <c r="R14" s="27"/>
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="4:20" ht="15" thickBot="1">
-      <c r="D15" s="90"/>
+      <c r="D15" s="79"/>
       <c r="J15" s="29"/>
       <c r="K15" s="30"/>
       <c r="L15" s="31"/>
@@ -4552,22 +4552,22 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="4:20">
-      <c r="D16" s="90"/>
+      <c r="D16" s="79"/>
       <c r="R16" s="27"/>
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="90"/>
+      <c r="D17" s="79"/>
       <c r="R17" s="27"/>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="4:19" ht="15" thickBot="1">
-      <c r="D18" s="90"/>
+      <c r="D18" s="79"/>
       <c r="R18" s="27"/>
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="4:19">
-      <c r="D19" s="90"/>
+      <c r="D19" s="79"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
@@ -4575,33 +4575,33 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="26"/>
-      <c r="O19" s="91" t="s">
-        <v>23</v>
+      <c r="O19" s="80" t="s">
+        <v>21</v>
       </c>
       <c r="P19" s="10"/>
       <c r="R19" s="27"/>
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="90"/>
+      <c r="D20" s="79"/>
       <c r="F20" s="27"/>
       <c r="G20" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H20" s="28"/>
       <c r="J20" s="27"/>
       <c r="K20" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="28"/>
-      <c r="O20" s="92"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="9"/>
       <c r="R20" s="27"/>
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="4:19" ht="15" thickBot="1">
-      <c r="D21" s="90"/>
+      <c r="D21" s="79"/>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31"/>
@@ -4609,70 +4609,70 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
       <c r="M21" s="31"/>
-      <c r="O21" s="93"/>
+      <c r="O21" s="82"/>
       <c r="P21" s="10"/>
       <c r="R21" s="27"/>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="4:19">
-      <c r="D22" s="90"/>
+      <c r="D22" s="79"/>
       <c r="R22" s="27"/>
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="4:19" ht="15" thickBot="1">
-      <c r="D23" s="90"/>
+      <c r="D23" s="79"/>
       <c r="R23" s="27"/>
       <c r="S23" s="10"/>
     </row>
     <row r="24" spans="4:19" ht="14.4" customHeight="1">
-      <c r="D24" s="90"/>
-      <c r="F24" s="79" t="s">
-        <v>24</v>
+      <c r="D24" s="79"/>
+      <c r="F24" s="83" t="s">
+        <v>22</v>
       </c>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="81"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="85"/>
       <c r="R24" s="27"/>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="4:19" ht="15" customHeight="1">
-      <c r="D25" s="90"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="84"/>
+      <c r="D25" s="79"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="88"/>
       <c r="R25" s="27"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="4:19" ht="13.8" customHeight="1" thickBot="1">
-      <c r="D26" s="90"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="87"/>
+      <c r="D26" s="79"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="91"/>
       <c r="R26" s="27"/>
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="4:19">
-      <c r="D27" s="90"/>
+      <c r="D27" s="79"/>
       <c r="R27" s="27"/>
       <c r="S27" s="10"/>
     </row>
@@ -4718,26 +4718,26 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="3:17" ht="15" thickBot="1">
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="G4" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="K4" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="G4" s="97" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="O4" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="K4" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="O4" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
     </row>
     <row r="5" spans="3:17">
       <c r="D5" s="32"/>
@@ -4753,11 +4753,11 @@
     </row>
     <row r="7" spans="3:17">
       <c r="D7" s="32"/>
-      <c r="E7" s="94" t="s">
-        <v>32</v>
+      <c r="E7" s="96" t="s">
+        <v>30</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
       <c r="H7" s="32"/>
       <c r="L7" s="32"/>
       <c r="P7" s="32"/>
@@ -4771,11 +4771,11 @@
     <row r="9" spans="3:17">
       <c r="D9" s="32"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="95" t="s">
-        <v>33</v>
+      <c r="I9" s="97" t="s">
+        <v>31</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
       <c r="L9" s="32"/>
       <c r="P9" s="32"/>
     </row>
@@ -4794,11 +4794,11 @@
     <row r="12" spans="3:17">
       <c r="D12" s="32"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="94" t="s">
-        <v>34</v>
+      <c r="I12" s="96" t="s">
+        <v>32</v>
       </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
       <c r="L12" s="32"/>
       <c r="P12" s="32"/>
     </row>
@@ -4820,12 +4820,12 @@
     </row>
     <row r="16" spans="3:17">
       <c r="D16" s="32"/>
-      <c r="F16" s="95" t="s">
-        <v>36</v>
+      <c r="F16" s="97" t="s">
+        <v>34</v>
       </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
       <c r="P16" s="32"/>
     </row>
     <row r="17" spans="4:16">
@@ -4835,15 +4835,15 @@
     </row>
     <row r="18" spans="4:16">
       <c r="H18" s="32"/>
-      <c r="I18" s="94" t="s">
-        <v>35</v>
+      <c r="I18" s="96" t="s">
+        <v>33</v>
       </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="4:16">
@@ -4856,15 +4856,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
